--- a/data/trans_orig/P36B09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Habitat-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6907</v>
+        <v>5962</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002859491304118721</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009965787684887883</v>
+        <v>0.008602651612054103</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6975</v>
+        <v>5477</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00262949218291337</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01013309700365359</v>
+        <v>0.007956666440387034</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -785,19 +785,19 @@
         <v>3792</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9470</v>
+        <v>8917</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002744884685271618</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0006929013179112769</v>
+        <v>0.000693334488113429</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006855468537008316</v>
+        <v>0.00645460145404463</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>29837</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20135</v>
+        <v>20534</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42616</v>
+        <v>41872</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04304988564136338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02905173964536724</v>
+        <v>0.0296276182779679</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06148830805724645</v>
+        <v>0.06041462321506193</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -835,19 +835,19 @@
         <v>24191</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15562</v>
+        <v>14848</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34652</v>
+        <v>34990</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03514371406836756</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02260736303667689</v>
+        <v>0.02157014325106558</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05034128860813471</v>
+        <v>0.05083168994686544</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -856,19 +856,19 @@
         <v>54028</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41421</v>
+        <v>40166</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>70022</v>
+        <v>69136</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03911030714533455</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02998427979919574</v>
+        <v>0.0290755607873658</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05068862095677338</v>
+        <v>0.05004702753286808</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>224421</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>201480</v>
+        <v>199729</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>248893</v>
+        <v>250537</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3238067571587139</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2907068439944913</v>
+        <v>0.288179213957536</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3591167433160816</v>
+        <v>0.3614877500789964</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>279</v>
@@ -906,19 +906,19 @@
         <v>277542</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>247823</v>
+        <v>252618</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>300986</v>
+        <v>303767</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4031978205186051</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.360024109327314</v>
+        <v>0.3669905877523197</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4372561617035388</v>
+        <v>0.441296292310183</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>503</v>
@@ -927,19 +927,19 @@
         <v>501963</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>464085</v>
+        <v>467805</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>536519</v>
+        <v>539129</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3633666532603584</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3359476156022261</v>
+        <v>0.3386399237245579</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3883816376225056</v>
+        <v>0.3902707845089029</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>339542</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>314278</v>
+        <v>310132</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>366467</v>
+        <v>364773</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4899088524495181</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4534570700308377</v>
+        <v>0.447474862124443</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5287585747429346</v>
+        <v>0.5263143984093053</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>369</v>
@@ -977,19 +977,19 @@
         <v>363111</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>338790</v>
+        <v>336826</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>390388</v>
+        <v>387810</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5275088426967802</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4921758583341589</v>
+        <v>0.4893225206949822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5671357847115343</v>
+        <v>0.563389202322423</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>700</v>
@@ -998,19 +998,19 @@
         <v>702653</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>666466</v>
+        <v>665938</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>738991</v>
+        <v>737792</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5086446099095449</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4824489779672675</v>
+        <v>0.4820672161790731</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5349494600733482</v>
+        <v>0.5340818487039987</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>97290</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80182</v>
+        <v>80746</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>116858</v>
+        <v>116831</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1403750134462859</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1156907059718197</v>
+        <v>0.1165053687094205</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1686095294434576</v>
+        <v>0.1685695666536907</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -1048,19 +1048,19 @@
         <v>21697</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13729</v>
+        <v>12988</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31857</v>
+        <v>31912</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03152013053333371</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01994547963234506</v>
+        <v>0.01886834020776883</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04628019837659872</v>
+        <v>0.04636051497378062</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>117</v>
@@ -1069,19 +1069,19 @@
         <v>118987</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>98591</v>
+        <v>98586</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>141693</v>
+        <v>140508</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08613354499949055</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07136949307391739</v>
+        <v>0.07136585419968706</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.102570212545385</v>
+        <v>0.1017125434126428</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>5850</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2164</v>
+        <v>2123</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14653</v>
+        <v>13775</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006088799645680096</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002252002389607715</v>
+        <v>0.002209347225601273</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01525075260693063</v>
+        <v>0.014336644229426</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1194,19 +1194,19 @@
         <v>11969</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6095</v>
+        <v>5934</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21524</v>
+        <v>20026</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01238624062245094</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006307227102846348</v>
+        <v>0.006141184960924021</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02227341659502892</v>
+        <v>0.02072403938044397</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1215,19 +1215,19 @@
         <v>17819</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10352</v>
+        <v>10354</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28304</v>
+        <v>28288</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009246538161334904</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005371676735809535</v>
+        <v>0.005372501000003936</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01468706267418671</v>
+        <v>0.01467846818591319</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>34911</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24423</v>
+        <v>24325</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47003</v>
+        <v>48350</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03633437550774619</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02541873202876961</v>
+        <v>0.02531726711946133</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04891940821447223</v>
+        <v>0.05032151429725529</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -1265,19 +1265,19 @@
         <v>48165</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>36044</v>
+        <v>35878</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>63345</v>
+        <v>63667</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04984284461078265</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03729948307110399</v>
+        <v>0.0371277777416278</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06555173669420683</v>
+        <v>0.06588551090309591</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>79</v>
@@ -1286,19 +1286,19 @@
         <v>83075</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>67189</v>
+        <v>66815</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>102082</v>
+        <v>105128</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04310795438391758</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03486435384377552</v>
+        <v>0.03467045196650274</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05297062565513094</v>
+        <v>0.05455101774901738</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>380736</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>347372</v>
+        <v>350139</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>411783</v>
+        <v>412484</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3962640601391422</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3615393773444516</v>
+        <v>0.3644183363410915</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4285763867542099</v>
+        <v>0.4293062134884669</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>411</v>
@@ -1336,19 +1336,19 @@
         <v>442768</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>409666</v>
+        <v>410185</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>476335</v>
+        <v>474161</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4581940347806276</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4239382516898786</v>
+        <v>0.4244752424081605</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4929297888334747</v>
+        <v>0.4906802510487521</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>765</v>
@@ -1357,19 +1357,19 @@
         <v>823505</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>778099</v>
+        <v>774244</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>867585</v>
+        <v>862217</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4273177320862544</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4037566259719922</v>
+        <v>0.4017559146586462</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4501910739181092</v>
+        <v>0.4474053355351593</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>464644</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>433160</v>
+        <v>430275</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>495908</v>
+        <v>496110</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4835936103678981</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4508256456081879</v>
+        <v>0.4478227620240989</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5161331634569379</v>
+        <v>0.5163430754095889</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>412</v>
@@ -1407,19 +1407,19 @@
         <v>433057</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>402088</v>
+        <v>401885</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>466430</v>
+        <v>465478</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4481437826988269</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4160967220150465</v>
+        <v>0.4158859830222337</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4826794876217715</v>
+        <v>0.4816949870036656</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>844</v>
@@ -1428,19 +1428,19 @@
         <v>897701</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>852525</v>
+        <v>853573</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>939148</v>
+        <v>941331</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4658179318634285</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4423762957622105</v>
+        <v>0.4429201174012828</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4873252609350485</v>
+        <v>0.4884579768517294</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>74674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58081</v>
+        <v>58773</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93255</v>
+        <v>92778</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07771915433953348</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06044948403853744</v>
+        <v>0.06117031510182284</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09705831689382774</v>
+        <v>0.09656172746604705</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -1478,19 +1478,19 @@
         <v>30375</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21008</v>
+        <v>20560</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44904</v>
+        <v>43962</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0314330972873119</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02173993906734625</v>
+        <v>0.02127577392941937</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04646819413153665</v>
+        <v>0.04549399259333561</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>97</v>
@@ -1499,19 +1499,19 @@
         <v>105049</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>85688</v>
+        <v>86509</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>125659</v>
+        <v>127282</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0545098435050646</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04446340396342931</v>
+        <v>0.04488987156740781</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0652047819927612</v>
+        <v>0.06604688799769209</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>9506</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4297</v>
+        <v>3905</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18153</v>
+        <v>17170</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01402639496246382</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006340552385476422</v>
+        <v>0.005761241425324687</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02678452026703421</v>
+        <v>0.02533445793045664</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1624,19 +1624,19 @@
         <v>10826</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4980</v>
+        <v>5795</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18605</v>
+        <v>18448</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01583121769740397</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007281804327059494</v>
+        <v>0.008474115666407486</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02720734331496451</v>
+        <v>0.02697684379910462</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1645,19 +1645,19 @@
         <v>20332</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12586</v>
+        <v>12095</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31152</v>
+        <v>30564</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01493285022008569</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009243858980510901</v>
+        <v>0.008882866218759373</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02287896077553841</v>
+        <v>0.02244765544889253</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>27736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18281</v>
+        <v>18694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39303</v>
+        <v>40705</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04092363651638669</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0269729892243328</v>
+        <v>0.02758211209504968</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05799091743548219</v>
+        <v>0.06006049117845285</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -1695,19 +1695,19 @@
         <v>34042</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23984</v>
+        <v>24228</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47356</v>
+        <v>46828</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.049781221426439</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03507298983690494</v>
+        <v>0.03542891449050889</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06925061723117693</v>
+        <v>0.06847827916700791</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>61</v>
@@ -1716,19 +1716,19 @@
         <v>61778</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>46458</v>
+        <v>48667</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>77654</v>
+        <v>78532</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04537227529742201</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03412083248643834</v>
+        <v>0.03574325880063743</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05703227967985396</v>
+        <v>0.05767732483919557</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>316412</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>290459</v>
+        <v>289562</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>341799</v>
+        <v>343301</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4668636913009627</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4285700191748106</v>
+        <v>0.4272471418167132</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5043222462016178</v>
+        <v>0.5065374170769228</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>348</v>
@@ -1766,19 +1766,19 @@
         <v>340258</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>314093</v>
+        <v>313610</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>366351</v>
+        <v>363808</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4975684836691773</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4593063312229377</v>
+        <v>0.4586003018467609</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5357259251492509</v>
+        <v>0.5320068990925491</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>649</v>
@@ -1787,19 +1787,19 @@
         <v>656670</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>618722</v>
+        <v>622471</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>692206</v>
+        <v>694989</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4822848847165469</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4544147554317297</v>
+        <v>0.4571680189994334</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5083842941919359</v>
+        <v>0.5104280817704696</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>286210</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>261620</v>
+        <v>260609</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>313065</v>
+        <v>314593</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.422301246733268</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3860185115377633</v>
+        <v>0.3845263323253927</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4619247249956381</v>
+        <v>0.4641789072472794</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>283</v>
@@ -1837,19 +1837,19 @@
         <v>281393</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>256391</v>
+        <v>256863</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>308257</v>
+        <v>308324</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4114881996958673</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3749271209519833</v>
+        <v>0.3756186093019823</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4507732258159336</v>
+        <v>0.4508716087430008</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>552</v>
@@ -1858,19 +1858,19 @@
         <v>567603</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>532302</v>
+        <v>532666</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>605219</v>
+        <v>604475</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4168704954754225</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.390943889634731</v>
+        <v>0.3912111608440334</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.444497083892839</v>
+        <v>0.4439507552587318</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>37876</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26664</v>
+        <v>27387</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51305</v>
+        <v>52233</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05588503048691877</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03934281137405858</v>
+        <v>0.04040989220910971</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07569983154228838</v>
+        <v>0.07707005018290113</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -1908,19 +1908,19 @@
         <v>17322</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10227</v>
+        <v>11258</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25730</v>
+        <v>26897</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02533087751111251</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01495489569829664</v>
+        <v>0.01646254931241508</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03762613238019098</v>
+        <v>0.03933198122422192</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>54</v>
@@ -1929,19 +1929,19 @@
         <v>55198</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>41504</v>
+        <v>41871</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>72200</v>
+        <v>69305</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04053949429052289</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0304818811820531</v>
+        <v>0.03075187755669905</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05302671474833057</v>
+        <v>0.05090035200889962</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>10814</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5048</v>
+        <v>5733</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20096</v>
+        <v>21078</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01148781795853687</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00536192390878179</v>
+        <v>0.006089679664386987</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02134741529532716</v>
+        <v>0.02239107977710829</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2054,19 +2054,19 @@
         <v>20190</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12890</v>
+        <v>12833</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30832</v>
+        <v>30854</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01943894865288312</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01241071854261496</v>
+        <v>0.01235562337823327</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0296853326142881</v>
+        <v>0.0297070439599294</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -2075,19 +2075,19 @@
         <v>31004</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20624</v>
+        <v>21374</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>43952</v>
+        <v>45229</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01565863823034513</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01041633185741031</v>
+        <v>0.01079480754064332</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02219838417021263</v>
+        <v>0.02284316474805977</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>45284</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34837</v>
+        <v>34620</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>59680</v>
+        <v>60473</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04810416033874178</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03700726964815792</v>
+        <v>0.03677573659867076</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06339679922590857</v>
+        <v>0.06423997269383809</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>61</v>
@@ -2125,19 +2125,19 @@
         <v>65971</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>51692</v>
+        <v>49957</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>83438</v>
+        <v>84776</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06351808858229777</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04976988214039288</v>
+        <v>0.04809936999612182</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08033622316249173</v>
+        <v>0.08162464428090829</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>109</v>
@@ -2146,19 +2146,19 @@
         <v>111254</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>91655</v>
+        <v>92856</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>133014</v>
+        <v>133133</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05618964237365973</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04629089501058683</v>
+        <v>0.04689735171368333</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06717925066189553</v>
+        <v>0.06723940692014874</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>392561</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>362817</v>
+        <v>363458</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>421640</v>
+        <v>421890</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4170116692358045</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3854150226271587</v>
+        <v>0.3860952383171602</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4479010716826805</v>
+        <v>0.4481671285691854</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>460</v>
@@ -2196,19 +2196,19 @@
         <v>478632</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>447306</v>
+        <v>447367</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>510817</v>
+        <v>512242</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4608385998362792</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4306764832113331</v>
+        <v>0.430735549036751</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4918266220604981</v>
+        <v>0.4931984628923896</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>873</v>
@@ -2217,19 +2217,19 @@
         <v>871194</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>830105</v>
+        <v>827250</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>912235</v>
+        <v>916423</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.440001387003816</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4192492264520777</v>
+        <v>0.4178072438226478</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4607295468183804</v>
+        <v>0.4628446416917138</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>432697</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>402602</v>
+        <v>403537</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>462438</v>
+        <v>462920</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4596475078069736</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4276774921427222</v>
+        <v>0.4286712386670555</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4912400335180773</v>
+        <v>0.4917520411264166</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>408</v>
@@ -2267,19 +2267,19 @@
         <v>420308</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>390711</v>
+        <v>391030</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>452779</v>
+        <v>453044</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4046820785188373</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3761852919150127</v>
+        <v>0.3764927713846088</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4359467142697767</v>
+        <v>0.4362017902525889</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>869</v>
@@ -2288,19 +2288,19 @@
         <v>853005</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>809639</v>
+        <v>811143</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>894352</v>
+        <v>898236</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4308150139722773</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4089125637874108</v>
+        <v>0.409672530401937</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4516973743523646</v>
+        <v>0.4536588984158891</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>60011</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46462</v>
+        <v>45589</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>75390</v>
+        <v>75109</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06374884465994332</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04935580485908239</v>
+        <v>0.04842807942520839</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08008526937385006</v>
+        <v>0.07978708199244934</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>49</v>
@@ -2338,19 +2338,19 @@
         <v>53512</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>40952</v>
+        <v>40499</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>69729</v>
+        <v>71933</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05152228440970268</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03942924413908044</v>
+        <v>0.03899320423367095</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0671369515626892</v>
+        <v>0.06925870996985722</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>110</v>
@@ -2359,19 +2359,19 @@
         <v>113523</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>92936</v>
+        <v>93233</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>135365</v>
+        <v>132910</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05733531841990185</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04693775203637681</v>
+        <v>0.04708782655304317</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0683669846140032</v>
+        <v>0.06712701452751565</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>28153</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18939</v>
+        <v>19577</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41687</v>
+        <v>42560</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008601467050211732</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005786375684951128</v>
+        <v>0.005981303231503192</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01273681233689338</v>
+        <v>0.01300333565923325</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>44</v>
@@ -2484,19 +2484,19 @@
         <v>44795</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>34012</v>
+        <v>31485</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60096</v>
+        <v>58987</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01326413667225658</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01007116117856879</v>
+        <v>0.009322864701981721</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01779496325492396</v>
+        <v>0.01746647689065</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>69</v>
@@ -2505,19 +2505,19 @@
         <v>72947</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>56219</v>
+        <v>56762</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>92325</v>
+        <v>92267</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01096931194011165</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008453802253585227</v>
+        <v>0.008535456710147292</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01388323468885895</v>
+        <v>0.0138744131425866</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>137767</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>115769</v>
+        <v>115049</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>161940</v>
+        <v>160019</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04209190217193519</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03537099609479996</v>
+        <v>0.03515102568491679</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04947750879277132</v>
+        <v>0.04889069782083424</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>165</v>
@@ -2555,19 +2555,19 @@
         <v>172369</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>148338</v>
+        <v>148352</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>199912</v>
+        <v>200145</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05104000332720078</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04392419634109691</v>
+        <v>0.04392844303666982</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05919568053498041</v>
+        <v>0.05926469051215624</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>303</v>
@@ -2576,19 +2576,19 @@
         <v>310136</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>275212</v>
+        <v>276997</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>346773</v>
+        <v>347566</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04663601902178206</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04138439834248695</v>
+        <v>0.04165288048704334</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05214532070127193</v>
+        <v>0.05226445241191725</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>1314131</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1253899</v>
+        <v>1259440</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1371273</v>
+        <v>1371495</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4015073415164402</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3831047551066327</v>
+        <v>0.3847977911931121</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4189659339997821</v>
+        <v>0.4190339891612023</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1498</v>
@@ -2626,19 +2626,19 @@
         <v>1539200</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1483438</v>
+        <v>1477605</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1596082</v>
+        <v>1599162</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4557706349323732</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4392590466867571</v>
+        <v>0.4375318547222989</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4726136698059161</v>
+        <v>0.4735258145677467</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2790</v>
@@ -2647,19 +2647,19 @@
         <v>2853331</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2766874</v>
+        <v>2771568</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2938491</v>
+        <v>2932018</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4290638858224269</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4160630196824391</v>
+        <v>0.4167689447588083</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4418695073804341</v>
+        <v>0.4408962677299674</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>1523093</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1463443</v>
+        <v>1463830</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1585762</v>
+        <v>1582412</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4653517654156709</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4471268820850089</v>
+        <v>0.4472451859246122</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4844991068283029</v>
+        <v>0.4834756149452522</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1472</v>
@@ -2697,19 +2697,19 @@
         <v>1497868</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1441541</v>
+        <v>1439951</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1554168</v>
+        <v>1555269</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4435317649290447</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4268528145293811</v>
+        <v>0.4263821691551226</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4602025468729881</v>
+        <v>0.4605286215011774</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2965</v>
@@ -2718,19 +2718,19 @@
         <v>3020962</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2939041</v>
+        <v>2942273</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3102050</v>
+        <v>3102338</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4542709081304805</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4419523004606783</v>
+        <v>0.4424383306990526</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4664644663202392</v>
+        <v>0.466507696389829</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>269850</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>239149</v>
+        <v>239444</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>302763</v>
+        <v>306181</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08244752384574201</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07306750756820503</v>
+        <v>0.07315738481317181</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09250343155884851</v>
+        <v>0.09354767738650953</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>116</v>
@@ -2768,19 +2768,19 @@
         <v>122906</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>102526</v>
+        <v>103166</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>148769</v>
+        <v>146088</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03639346013912471</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03035885356646622</v>
+        <v>0.03054833245544168</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04405183929994105</v>
+        <v>0.04325799847075578</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>378</v>
@@ -2789,19 +2789,19 @@
         <v>392756</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>356523</v>
+        <v>356667</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>433164</v>
+        <v>436918</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05905987508519896</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05361139855042341</v>
+        <v>0.05363304563259287</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0651360951162146</v>
+        <v>0.06570066754123322</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>7055</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3247</v>
+        <v>3383</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13379</v>
+        <v>13541</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01005742303354018</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004628178021408171</v>
+        <v>0.004822041530132135</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01907195603163808</v>
+        <v>0.01930382188890739</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -3154,19 +3154,19 @@
         <v>9773</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4386</v>
+        <v>4617</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18104</v>
+        <v>18228</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01405959821325818</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006310048169215062</v>
+        <v>0.006642308163567982</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02604398128736541</v>
+        <v>0.02622229569820783</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -3175,19 +3175,19 @@
         <v>16828</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9857</v>
+        <v>9881</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26364</v>
+        <v>26833</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01204942783726908</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007057972847611543</v>
+        <v>0.007074842721367288</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01887721761470523</v>
+        <v>0.01921282549058728</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>63579</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48769</v>
+        <v>49008</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81113</v>
+        <v>80727</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09063557977161732</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06952379895093096</v>
+        <v>0.06986467103992366</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1156313455435381</v>
+        <v>0.1150820930735793</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -3225,19 +3225,19 @@
         <v>74964</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58378</v>
+        <v>60635</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>94441</v>
+        <v>94372</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1078399791849681</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08398095762598158</v>
+        <v>0.08722669728579373</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1358598079984442</v>
+        <v>0.1357607234123483</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>125</v>
@@ -3246,19 +3246,19 @@
         <v>138542</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>113577</v>
+        <v>117428</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>161406</v>
+        <v>160942</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09919873474053104</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08132351966666296</v>
+        <v>0.08408031499805289</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1155696445287712</v>
+        <v>0.1152373825034657</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>280722</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>254536</v>
+        <v>255135</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>310181</v>
+        <v>312174</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4001879883892329</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3628575989621865</v>
+        <v>0.3637119311636243</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4421828886509299</v>
+        <v>0.445025108499651</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>270</v>
@@ -3296,19 +3296,19 @@
         <v>288904</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>260678</v>
+        <v>261995</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>313555</v>
+        <v>313141</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4156073939769792</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3750027767130775</v>
+        <v>0.3768971381483879</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4510698818964792</v>
+        <v>0.4504736308054751</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>538</v>
@@ -3317,19 +3317,19 @@
         <v>569626</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>532605</v>
+        <v>532476</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>608068</v>
+        <v>608204</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4078626974217343</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3813546473960603</v>
+        <v>0.3812623542983617</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4353879674470427</v>
+        <v>0.4354851345369777</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>288456</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>260788</v>
+        <v>263402</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>316210</v>
+        <v>314613</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4112129798775959</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3717710385210576</v>
+        <v>0.3754971550330161</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4507783406058252</v>
+        <v>0.4485015807544411</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>267</v>
@@ -3367,19 +3367,19 @@
         <v>284417</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>259192</v>
+        <v>257269</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>315698</v>
+        <v>310413</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4091518497075954</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3728642119241689</v>
+        <v>0.3700980157751949</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.454151837978955</v>
+        <v>0.4465487061249739</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>548</v>
@@ -3388,19 +3388,19 @@
         <v>572873</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>537753</v>
+        <v>533872</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>610688</v>
+        <v>609292</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4101870924500394</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3850409700574278</v>
+        <v>0.3822617093171177</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.437263578743675</v>
+        <v>0.4362636805808064</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>61664</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47176</v>
+        <v>47516</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79224</v>
+        <v>79136</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08790602892801373</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06725189241081636</v>
+        <v>0.06773702356818349</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1129388889845851</v>
+        <v>0.1128134648938158</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -3438,19 +3438,19 @@
         <v>37079</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26285</v>
+        <v>26553</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50978</v>
+        <v>50210</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05334117891719917</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03781229834612224</v>
+        <v>0.03819852989180844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07333447524210142</v>
+        <v>0.0722300252337247</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>93</v>
@@ -3459,19 +3459,19 @@
         <v>98743</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>81853</v>
+        <v>81485</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>121563</v>
+        <v>122146</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07070204755042618</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05860787432467823</v>
+        <v>0.05834490433219141</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08704159121318751</v>
+        <v>0.08745843137395627</v>
       </c>
     </row>
     <row r="9">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7191</v>
+        <v>6582</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002041116694459675</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007127954183129291</v>
+        <v>0.006524569233693116</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -3584,19 +3584,19 @@
         <v>7521</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2297</v>
+        <v>3172</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15616</v>
+        <v>16790</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007309650008827466</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002232262717848219</v>
+        <v>0.003082699189169209</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01517643105617491</v>
+        <v>0.0163171143053296</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -3605,19 +3605,19 @@
         <v>9581</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4319</v>
+        <v>4353</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18552</v>
+        <v>18195</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00470142972695391</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002119403613949287</v>
+        <v>0.002135932602872377</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0091041659656006</v>
+        <v>0.008928921269041802</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>65155</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51232</v>
+        <v>49175</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>83558</v>
+        <v>81573</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06458452919392296</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05078332568079833</v>
+        <v>0.04874516274074497</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08282686466208719</v>
+        <v>0.08085937368377777</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>93</v>
@@ -3655,19 +3655,19 @@
         <v>100528</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>81157</v>
+        <v>82773</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>120952</v>
+        <v>122886</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0976973210912518</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07887172651717787</v>
+        <v>0.08044194775790231</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.117546287698084</v>
+        <v>0.1194259505976766</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>154</v>
@@ -3676,19 +3676,19 @@
         <v>165683</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>141883</v>
+        <v>143501</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>191404</v>
+        <v>195787</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08130462690812029</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06962523410122057</v>
+        <v>0.07041935898681888</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09392656919426798</v>
+        <v>0.0960773017732426</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>382725</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>350399</v>
+        <v>350268</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>412637</v>
+        <v>412534</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3793763226119948</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3473327326679167</v>
+        <v>0.3472034330843835</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4090267632736737</v>
+        <v>0.4089246029715122</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>390</v>
@@ -3726,19 +3726,19 @@
         <v>427143</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>393856</v>
+        <v>395584</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>461144</v>
+        <v>462358</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4151143430295156</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3827654504917833</v>
+        <v>0.3844440513112368</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.448158049990602</v>
+        <v>0.4493382458540098</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>743</v>
@@ -3747,19 +3747,19 @@
         <v>809868</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>765499</v>
+        <v>763893</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>851923</v>
+        <v>851623</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3974220130915442</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3756490284955143</v>
+        <v>0.3748609941263922</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4180594675645899</v>
+        <v>0.4179124942205876</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>489183</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>456620</v>
+        <v>456100</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>519998</v>
+        <v>522777</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4849026143705614</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4526251086930977</v>
+        <v>0.4521094951242782</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.515448201210132</v>
+        <v>0.5182028962111365</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>373</v>
@@ -3797,19 +3797,19 @@
         <v>410536</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>378185</v>
+        <v>377386</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>444189</v>
+        <v>444234</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3989755532932546</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3675350920028563</v>
+        <v>0.3667587044493715</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4316809733234596</v>
+        <v>0.4317246560782344</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>823</v>
@@ -3818,19 +3818,19 @@
         <v>899719</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>856071</v>
+        <v>850720</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>948753</v>
+        <v>943932</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4415142808841824</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4200949972791351</v>
+        <v>0.4174692947030375</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4655765738776264</v>
+        <v>0.4632107563368174</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>69705</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54681</v>
+        <v>53898</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>87891</v>
+        <v>87834</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0690954171290612</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05420276559151723</v>
+        <v>0.05342671270943903</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0871219155315653</v>
+        <v>0.08706552061679759</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>75</v>
@@ -3868,19 +3868,19 @@
         <v>83247</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65922</v>
+        <v>66950</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>102091</v>
+        <v>103396</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08090313257715052</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06406569440790399</v>
+        <v>0.06506450893775907</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09921599621556165</v>
+        <v>0.1004841409861475</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>138</v>
@@ -3889,19 +3889,19 @@
         <v>152953</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>127443</v>
+        <v>130881</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>177601</v>
+        <v>178143</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07505764938919922</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06253945058205626</v>
+        <v>0.06422652042334039</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08715320825716175</v>
+        <v>0.08741923370278346</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>10657</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5363</v>
+        <v>5294</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22279</v>
+        <v>20724</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01412409944501842</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007107442322411834</v>
+        <v>0.00701711818524109</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02952864921053255</v>
+        <v>0.02746757680174119</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -4014,19 +4014,19 @@
         <v>11246</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6003</v>
+        <v>5530</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20446</v>
+        <v>19653</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01453002589700704</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007756408490893419</v>
+        <v>0.0071441876504919</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02641624898698999</v>
+        <v>0.02539195498188961</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -4035,19 +4035,19 @@
         <v>21903</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13112</v>
+        <v>13873</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35148</v>
+        <v>33830</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01432965107929341</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008578319018735238</v>
+        <v>0.009076457199295531</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02299522683881123</v>
+        <v>0.02213271575121366</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>38628</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27069</v>
+        <v>26851</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54657</v>
+        <v>56263</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0511964476334353</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03587748022644312</v>
+        <v>0.03558857527374398</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07244173312888544</v>
+        <v>0.07457084647077065</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -4085,19 +4085,19 @@
         <v>57489</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44194</v>
+        <v>44311</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75305</v>
+        <v>74862</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07427587476352089</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05709931845341688</v>
+        <v>0.05724981619107251</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09729421184966575</v>
+        <v>0.09672231905659588</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>82</v>
@@ -4106,19 +4106,19 @@
         <v>96116</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>77392</v>
+        <v>78769</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>118577</v>
+        <v>119421</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06288332820374276</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05063297114805952</v>
+        <v>0.05153427736497945</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07757808881445566</v>
+        <v>0.0781301293756607</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>297124</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>271221</v>
+        <v>268541</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>326279</v>
+        <v>324738</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3938041456183598</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3594729628142203</v>
+        <v>0.3559209360771889</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4324461163291512</v>
+        <v>0.4304035578377265</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>322</v>
@@ -4156,19 +4156,19 @@
         <v>352659</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>323215</v>
+        <v>323479</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>381552</v>
+        <v>379350</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4556379691778157</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4175953988798284</v>
+        <v>0.4179363103854302</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4929681129890769</v>
+        <v>0.4901231932478091</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>594</v>
@@ -4177,19 +4177,19 @@
         <v>649783</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>608714</v>
+        <v>607902</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>688768</v>
+        <v>691268</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4251153435554528</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3982463891477623</v>
+        <v>0.3977148940765138</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4506209209339663</v>
+        <v>0.4522566842388573</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>344808</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>316178</v>
+        <v>317268</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>374011</v>
+        <v>373158</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4570043475745671</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.419058380796213</v>
+        <v>0.4205027541696053</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.495708656258514</v>
+        <v>0.4945787797550854</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>283</v>
@@ -4227,19 +4227,19 @@
         <v>312617</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>283352</v>
+        <v>285803</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>341893</v>
+        <v>343408</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4039028555670463</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3660931970222795</v>
+        <v>0.3692591983813362</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4417278874642033</v>
+        <v>0.443685917985833</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>599</v>
@@ -4248,19 +4248,19 @@
         <v>657425</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>617137</v>
+        <v>615778</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>698976</v>
+        <v>697731</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4301149975183844</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4037570158387013</v>
+        <v>0.4028677775521726</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4572991530244342</v>
+        <v>0.456485024666707</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>63280</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48412</v>
+        <v>49619</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>80813</v>
+        <v>79706</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08387095972861941</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06416423069340019</v>
+        <v>0.06576369743544554</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1071082849546026</v>
+        <v>0.1056411949403447</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -4298,19 +4298,19 @@
         <v>39979</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28166</v>
+        <v>29672</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>54638</v>
+        <v>55143</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0516532745946101</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03639113916306073</v>
+        <v>0.03833616772383798</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07059270644977772</v>
+        <v>0.07124461926145827</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>94</v>
@@ -4319,19 +4319,19 @@
         <v>103260</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>83483</v>
+        <v>82628</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>125174</v>
+        <v>124831</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06755667964312664</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05461823273483599</v>
+        <v>0.05405862772223589</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08189416870355765</v>
+        <v>0.08166971622921251</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>10637</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5152</v>
+        <v>4909</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19985</v>
+        <v>19785</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01124672013346947</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005447021409880751</v>
+        <v>0.005189707766833729</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02112955327366978</v>
+        <v>0.02091826504579723</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -4444,19 +4444,19 @@
         <v>17001</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9871</v>
+        <v>10056</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28425</v>
+        <v>27622</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01623842572753196</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009428114399591585</v>
+        <v>0.009605181384426578</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02715059263984992</v>
+        <v>0.0263835522065825</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -4465,19 +4465,19 @@
         <v>27638</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17449</v>
+        <v>17780</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40446</v>
+        <v>41727</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01386920924417694</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008756249448814285</v>
+        <v>0.008922165928211165</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02029674894852486</v>
+        <v>0.02093919514775746</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>70840</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>55916</v>
+        <v>56412</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>89487</v>
+        <v>88468</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07489750188691924</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05911880567388062</v>
+        <v>0.05964332814661234</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09461278215638021</v>
+        <v>0.09353586063069401</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>88</v>
@@ -4515,19 +4515,19 @@
         <v>92542</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>75157</v>
+        <v>75736</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>113878</v>
+        <v>112034</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08839352750198194</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0717874612976591</v>
+        <v>0.07234074133219659</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1087726862431439</v>
+        <v>0.1070112636536021</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>155</v>
@@ -4536,19 +4536,19 @@
         <v>163382</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>139663</v>
+        <v>139517</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>189473</v>
+        <v>186718</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0819879000577229</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07008553969347356</v>
+        <v>0.07001194838476903</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09508059086866459</v>
+        <v>0.0936984707123501</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>369435</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>338865</v>
+        <v>339168</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>402422</v>
+        <v>402516</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3905956599425322</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3582753298839881</v>
+        <v>0.3585952175269237</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4254726899105171</v>
+        <v>0.4255719811077493</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>460</v>
@@ -4586,19 +4586,19 @@
         <v>480656</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>447692</v>
+        <v>446419</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>515556</v>
+        <v>512639</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4591084651162614</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4276215612582835</v>
+        <v>0.4264064984068969</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4924434202333876</v>
+        <v>0.4896577576554867</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>809</v>
@@ -4607,19 +4607,19 @@
         <v>850091</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>807457</v>
+        <v>799441</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>897931</v>
+        <v>892448</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4265901876898909</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4051961299022928</v>
+        <v>0.4011732505071175</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4505973373452798</v>
+        <v>0.4478460811707103</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>418256</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>386074</v>
+        <v>388884</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>449706</v>
+        <v>450574</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4422129734223762</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4081879648629386</v>
+        <v>0.4111586282588043</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4754645920183649</v>
+        <v>0.4763822277398993</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>383</v>
@@ -4657,19 +4657,19 @@
         <v>402589</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>366730</v>
+        <v>370523</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>432712</v>
+        <v>434663</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3845412201191489</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3502898157207646</v>
+        <v>0.3539121704563652</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4133133790164496</v>
+        <v>0.4151774019947927</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>788</v>
@@ -4678,19 +4678,19 @@
         <v>820845</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>776045</v>
+        <v>773668</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>864884</v>
+        <v>865515</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4119140020220953</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.389432728790828</v>
+        <v>0.3882402518535895</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4340136143767639</v>
+        <v>0.4343303527936023</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>76656</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>62955</v>
+        <v>61107</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>94107</v>
+        <v>93683</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08104714461470292</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06656109579605456</v>
+        <v>0.06460748616130445</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09949744082685115</v>
+        <v>0.09904938125234741</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>53</v>
@@ -4728,19 +4728,19 @@
         <v>54146</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>41094</v>
+        <v>39226</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>70605</v>
+        <v>69608</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05171836153507582</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03925141327134573</v>
+        <v>0.03746751570371316</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06743979763672611</v>
+        <v>0.06648750805043979</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>131</v>
@@ -4749,19 +4749,19 @@
         <v>130802</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>109708</v>
+        <v>106825</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>155047</v>
+        <v>153805</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06563870098611402</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05505336531637448</v>
+        <v>0.05360639185866055</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07780514975902753</v>
+        <v>0.07718199444921023</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>30408</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20425</v>
+        <v>21267</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>45248</v>
+        <v>46784</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008915723692370609</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005988777969098289</v>
+        <v>0.006235534458685293</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01326665788884774</v>
+        <v>0.01371728285701387</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>40</v>
@@ -4874,19 +4874,19 @@
         <v>45541</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>31985</v>
+        <v>33146</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>61716</v>
+        <v>62880</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01284653845604761</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009022540187323189</v>
+        <v>0.009349845795726909</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01740920662082811</v>
+        <v>0.01773738145704477</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>68</v>
@@ -4895,19 +4895,19 @@
         <v>75950</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>58940</v>
+        <v>58835</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>96300</v>
+        <v>95722</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01091911099068069</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008473638204953901</v>
+        <v>0.008458592184154783</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01384479361132402</v>
+        <v>0.01376169609832645</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>238201</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>211180</v>
+        <v>208292</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>274702</v>
+        <v>271205</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0698408020807096</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06191841089138445</v>
+        <v>0.06107152341360565</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08054301114457345</v>
+        <v>0.07951767151341044</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>300</v>
@@ -4945,19 +4945,19 @@
         <v>325523</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>291410</v>
+        <v>288577</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>363211</v>
+        <v>361129</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0918249175660036</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08220212032451618</v>
+        <v>0.08140318046686686</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1024561168330712</v>
+        <v>0.1018688443613403</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>516</v>
@@ -4966,19 +4966,19 @@
         <v>563723</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>517905</v>
+        <v>517788</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>610133</v>
+        <v>612121</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08104527249605453</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07445812486127883</v>
+        <v>0.07444128017096523</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08771754247185835</v>
+        <v>0.08800333784588399</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>1330006</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1275087</v>
+        <v>1277277</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1393121</v>
+        <v>1394058</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3899597669366235</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3738573309561514</v>
+        <v>0.3744993709367462</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4084651814505994</v>
+        <v>0.4087397400929582</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1442</v>
@@ -5016,19 +5016,19 @@
         <v>1549362</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1488161</v>
+        <v>1485530</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1607051</v>
+        <v>1605388</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4370510829678214</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4197870677805526</v>
+        <v>0.4190450466075559</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.453324263814186</v>
+        <v>0.452855180787148</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2684</v>
@@ -5037,19 +5037,19 @@
         <v>2879368</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2790446</v>
+        <v>2798967</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2966896</v>
+        <v>2964952</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4139604258507458</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4011762690619011</v>
+        <v>0.4024012843954167</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4265440286595329</v>
+        <v>0.4262646100226566</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>1540703</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1473752</v>
+        <v>1483695</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1598066</v>
+        <v>1603194</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4517363836176892</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4321063861446413</v>
+        <v>0.4350214773338621</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.468555375447304</v>
+        <v>0.4700589627693022</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1306</v>
@@ -5087,19 +5087,19 @@
         <v>1410159</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1350372</v>
+        <v>1354177</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1473516</v>
+        <v>1473606</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3977839756920595</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3809188854289408</v>
+        <v>0.381992248703761</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4156560384853135</v>
+        <v>0.4156812901338579</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2758</v>
@@ -5108,19 +5108,19 @@
         <v>2950862</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2865696</v>
+        <v>2867707</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3035148</v>
+        <v>3032903</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4242388862158166</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4119947344509209</v>
+        <v>0.4122838340972875</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4363564980123374</v>
+        <v>0.4360338168738747</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>271306</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>239399</v>
+        <v>240739</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>306394</v>
+        <v>305689</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07954732367260713</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07019224876564427</v>
+        <v>0.0705850895008367</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08983503456877755</v>
+        <v>0.08962843306246741</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>199</v>
@@ -5158,19 +5158,19 @@
         <v>214452</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>188762</v>
+        <v>185520</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>243328</v>
+        <v>247304</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0604934853180679</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05324677069956507</v>
+        <v>0.05233244146619519</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06863900927981451</v>
+        <v>0.06976056748508154</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>456</v>
@@ -5179,19 +5179,19 @@
         <v>485758</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>440458</v>
+        <v>446014</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>531261</v>
+        <v>533809</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06983630444670243</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06332361305010842</v>
+        <v>0.0641224662118039</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07637823209502516</v>
+        <v>0.07674455616655802</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>3811</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9236</v>
+        <v>9982</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005704515133732775</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001213298160204828</v>
+        <v>0.0012114174633968</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01382525994208474</v>
+        <v>0.01494230827667914</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -5544,19 +5544,19 @@
         <v>8854</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4217</v>
+        <v>4100</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16346</v>
+        <v>16251</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0132123105998964</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00629222362661665</v>
+        <v>0.006117411179144999</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02439172455712759</v>
+        <v>0.02425034816310177</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -5565,19 +5565,19 @@
         <v>12665</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6820</v>
+        <v>7000</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21499</v>
+        <v>21060</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00946429643987988</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005096265042602319</v>
+        <v>0.005230972466340204</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01606514886915605</v>
+        <v>0.01573740250664559</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>20527</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12036</v>
+        <v>12861</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30433</v>
+        <v>31791</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03072588456139623</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01801598119941063</v>
+        <v>0.01925205483220464</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04555501224828488</v>
+        <v>0.04758747069117424</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -5615,19 +5615,19 @@
         <v>30766</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20204</v>
+        <v>21065</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43120</v>
+        <v>43800</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0459089504216051</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03014775334785652</v>
+        <v>0.03143365665696449</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0643436984072345</v>
+        <v>0.06535814670366316</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -5636,19 +5636,19 @@
         <v>51293</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37855</v>
+        <v>39054</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66961</v>
+        <v>67083</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03832931588134709</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02828802583168279</v>
+        <v>0.02918399351442335</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05003730327342172</v>
+        <v>0.05012849626693015</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>250024</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>224976</v>
+        <v>225099</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>275949</v>
+        <v>276119</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3742556623216646</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3367613146494218</v>
+        <v>0.3369447567001418</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4130609869497305</v>
+        <v>0.4133159077567348</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>285</v>
@@ -5686,19 +5686,19 @@
         <v>288344</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>263455</v>
+        <v>262973</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>312972</v>
+        <v>314964</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4302642884185195</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3931253453875423</v>
+        <v>0.3924067183523302</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.467014257149465</v>
+        <v>0.4699865498857491</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>528</v>
@@ -5707,19 +5707,19 @@
         <v>538368</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>503467</v>
+        <v>503262</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>575593</v>
+        <v>572713</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4023038671949842</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3762235535999611</v>
+        <v>0.3760700908620867</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4301206042191479</v>
+        <v>0.4279681995559633</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>321650</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>295458</v>
+        <v>298339</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>348637</v>
+        <v>347781</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4814704006813648</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4422640052281047</v>
+        <v>0.4465759468996285</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5218663110775176</v>
+        <v>0.5205843128245069</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>278</v>
@@ -5757,19 +5757,19 @@
         <v>278277</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>252672</v>
+        <v>254823</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>302944</v>
+        <v>305013</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4152424987530032</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3770344552818389</v>
+        <v>0.3802447551431352</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4520513214993113</v>
+        <v>0.4551380698430316</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>587</v>
@@ -5778,19 +5778,19 @@
         <v>599927</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>560807</v>
+        <v>564151</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>633891</v>
+        <v>635195</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4483045494354418</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4190712616848229</v>
+        <v>0.4215702649364453</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4736849394521725</v>
+        <v>0.4746594373707144</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>72046</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>57411</v>
+        <v>58317</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>89762</v>
+        <v>89761</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1078435373018417</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08593725358117095</v>
+        <v>0.08729312075950567</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1343624225492702</v>
+        <v>0.1343618112462507</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>63</v>
@@ -5828,19 +5828,19 @@
         <v>63914</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>49367</v>
+        <v>51139</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80102</v>
+        <v>80288</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09537195180697575</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0736649228339729</v>
+        <v>0.0763091633407299</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1195275053980467</v>
+        <v>0.1198052875085653</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>134</v>
@@ -5849,19 +5849,19 @@
         <v>135960</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>115387</v>
+        <v>116869</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>160436</v>
+        <v>157935</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1015979710483469</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08622496480628193</v>
+        <v>0.08733226080010455</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1198885810595337</v>
+        <v>0.1180194629605757</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>3617</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>909</v>
+        <v>952</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8289</v>
+        <v>9152</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003544505416022214</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0008905604913870047</v>
+        <v>0.000932914786956205</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008123111053712212</v>
+        <v>0.008968370050009836</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -5974,19 +5974,19 @@
         <v>13135</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6401</v>
+        <v>6468</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22431</v>
+        <v>22166</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01261979051961103</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00615039915421641</v>
+        <v>0.006214565948203731</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02155204815603402</v>
+        <v>0.0212972669958847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -5995,19 +5995,19 @@
         <v>16752</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9887</v>
+        <v>9715</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27201</v>
+        <v>27133</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008126861109460355</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004796632187494856</v>
+        <v>0.00471334997594023</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01319605919543066</v>
+        <v>0.01316323744346464</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>17544</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10341</v>
+        <v>10289</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27603</v>
+        <v>28154</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01719192670022808</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01013314311618423</v>
+        <v>0.01008233986360279</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02704890204287054</v>
+        <v>0.02758895192450772</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -6045,19 +6045,19 @@
         <v>35026</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23910</v>
+        <v>25552</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48185</v>
+        <v>48737</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03365364465115365</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02297316301879709</v>
+        <v>0.02455099874850191</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04629690410396102</v>
+        <v>0.04682679646370626</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>48</v>
@@ -6066,19 +6066,19 @@
         <v>52570</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>39037</v>
+        <v>39614</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>68535</v>
+        <v>70784</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02550389113056499</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01893840280488039</v>
+        <v>0.01921819367667392</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03324883915528654</v>
+        <v>0.03433987059829571</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>376405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>343883</v>
+        <v>346080</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>406477</v>
+        <v>410027</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3688520839910864</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3369820427778794</v>
+        <v>0.3391356333773696</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3983203039232561</v>
+        <v>0.4017994209108264</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>388</v>
@@ -6116,19 +6116,19 @@
         <v>418817</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>386903</v>
+        <v>385743</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>450638</v>
+        <v>452602</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4024031722640022</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3717399044263838</v>
+        <v>0.3706257245615082</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4329771117071978</v>
+        <v>0.4348639430798472</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>739</v>
@@ -6137,19 +6137,19 @@
         <v>795222</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>750617</v>
+        <v>746053</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>844268</v>
+        <v>840697</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.385792931426022</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.364153195467424</v>
+        <v>0.3619388818235171</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4095867427362188</v>
+        <v>0.4078545368930666</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>452964</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>421022</v>
+        <v>418874</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>487742</v>
+        <v>482823</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4438741889046402</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.412573198592533</v>
+        <v>0.4104688013004921</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4779547662152429</v>
+        <v>0.4731341320645789</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>390</v>
@@ -6187,19 +6187,19 @@
         <v>413502</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>381305</v>
+        <v>380783</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>449327</v>
+        <v>444657</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3972965592723297</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3663613929079994</v>
+        <v>0.3658603819821123</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4317174563639293</v>
+        <v>0.4272302770658179</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>810</v>
@@ -6208,19 +6208,19 @@
         <v>866466</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>817629</v>
+        <v>820096</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>908057</v>
+        <v>918324</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4203558901519026</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3966632027136801</v>
+        <v>0.3978601139099593</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4405334707578969</v>
+        <v>0.4455144764999838</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>169948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>144054</v>
+        <v>145043</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>194087</v>
+        <v>193212</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1665372949880231</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1411633473412184</v>
+        <v>0.1421322950078572</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1901923253085736</v>
+        <v>0.1893350169626984</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>153</v>
@@ -6258,19 +6258,19 @@
         <v>160309</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>136129</v>
+        <v>135086</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>183043</v>
+        <v>183681</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1540268332929034</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1307941092126259</v>
+        <v>0.129791505810879</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1758692167914957</v>
+        <v>0.1764823245423676</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>311</v>
@@ -6279,19 +6279,19 @@
         <v>330257</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>297376</v>
+        <v>296437</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>361736</v>
+        <v>364974</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1602204261820501</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1442683540629967</v>
+        <v>0.1438129271240441</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1754920194954152</v>
+        <v>0.1770629871942942</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>4298</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10183</v>
+        <v>11818</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005694222419413877</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001401797335864509</v>
+        <v>0.0013923649239406</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01349008412797568</v>
+        <v>0.0156568068612068</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -6404,19 +6404,19 @@
         <v>7193</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2620</v>
+        <v>2571</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15182</v>
+        <v>14780</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00917495076897828</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00334221460473624</v>
+        <v>0.003279542124468919</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01936562364600079</v>
+        <v>0.01885354860349384</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -6425,19 +6425,19 @@
         <v>11491</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5146</v>
+        <v>5648</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21075</v>
+        <v>20603</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0074675233870201</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00334390746756572</v>
+        <v>0.00367007749001979</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01369553741367257</v>
+        <v>0.0133889479356919</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>29803</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20073</v>
+        <v>20189</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42992</v>
+        <v>42578</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03948195073656561</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02659283825795022</v>
+        <v>0.02674658593620029</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05695486683805043</v>
+        <v>0.05640723153342914</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -6475,19 +6475,19 @@
         <v>33619</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23904</v>
+        <v>22836</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47797</v>
+        <v>46246</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04288342876905507</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03049171814648359</v>
+        <v>0.02912872314170016</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06096890013280289</v>
+        <v>0.05899018159797132</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>58</v>
@@ -6496,19 +6496,19 @@
         <v>63422</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>49013</v>
+        <v>49371</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>79011</v>
+        <v>80681</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04121487663038313</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03185108087660263</v>
+        <v>0.03208391877327775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05134584936425877</v>
+        <v>0.05243089071547007</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>204035</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>180933</v>
+        <v>180537</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>228086</v>
+        <v>229900</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2703013671810638</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2396963164555632</v>
+        <v>0.2391724781579668</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3021638472601383</v>
+        <v>0.3045674240720065</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>231</v>
@@ -6546,19 +6546,19 @@
         <v>248706</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>220650</v>
+        <v>220696</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>277437</v>
+        <v>273598</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.317242458531991</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2814546920367343</v>
+        <v>0.2815138714054196</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3538903257036539</v>
+        <v>0.3489936053253636</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>417</v>
@@ -6567,19 +6567,19 @@
         <v>452741</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>416726</v>
+        <v>414163</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>493220</v>
+        <v>489058</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2942160983388424</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2708115180657694</v>
+        <v>0.2691461222431938</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3205217538661063</v>
+        <v>0.3178172300085039</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>362308</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>334235</v>
+        <v>335586</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>390139</v>
+        <v>389825</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.479979372087454</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.442789097876402</v>
+        <v>0.4445783509554365</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5168496024069023</v>
+        <v>0.5164339080555466</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>308</v>
@@ -6617,19 +6617,19 @@
         <v>326551</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>297753</v>
+        <v>300120</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>356472</v>
+        <v>355365</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4165393262898727</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3798047563106534</v>
+        <v>0.3828238630107761</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4547049690252639</v>
+        <v>0.4532925803690097</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>642</v>
@@ -6638,19 +6638,19 @@
         <v>688860</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>649694</v>
+        <v>648455</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>729204</v>
+        <v>724731</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4476590404499929</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4222073087206941</v>
+        <v>0.4214022526945502</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4738770257163581</v>
+        <v>0.470970128256344</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>154398</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>134529</v>
+        <v>133673</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>177838</v>
+        <v>177467</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2045430875755027</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1782221236605746</v>
+        <v>0.1770879594715358</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2355969424605837</v>
+        <v>0.2351055834948411</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>158</v>
@@ -6688,19 +6688,19 @@
         <v>167893</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>146083</v>
+        <v>145241</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>192421</v>
+        <v>191863</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2141598356401029</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1863387926106173</v>
+        <v>0.1852657209887778</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2454466803150784</v>
+        <v>0.2447352386630364</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>300</v>
@@ -6709,19 +6709,19 @@
         <v>322291</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>290506</v>
+        <v>289746</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>356110</v>
+        <v>355630</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2094424611937614</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1887871953911066</v>
+        <v>0.1882927867821516</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2314201957194575</v>
+        <v>0.2311077825138753</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>9666</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4757</v>
+        <v>4354</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17495</v>
+        <v>17873</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01035084526453814</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005094556034726153</v>
+        <v>0.00466268740441544</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01873525794439174</v>
+        <v>0.01913977793309401</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -6834,19 +6834,19 @@
         <v>12373</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5810</v>
+        <v>6061</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21706</v>
+        <v>21470</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0118986926535396</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005587388241042539</v>
+        <v>0.005828639239500302</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02087466024443922</v>
+        <v>0.02064799179041396</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -6855,19 +6855,19 @@
         <v>22038</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13436</v>
+        <v>13494</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33960</v>
+        <v>32674</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01116634228720418</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006807822036772273</v>
+        <v>0.006837234159974452</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01720670535143079</v>
+        <v>0.0165553670936003</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>32453</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22382</v>
+        <v>22742</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>44462</v>
+        <v>45352</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03475353832466099</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02396851912222569</v>
+        <v>0.02435452663268173</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04761416783061322</v>
+        <v>0.04856731444497559</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>46</v>
@@ -6905,19 +6905,19 @@
         <v>48537</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>36488</v>
+        <v>36782</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>64189</v>
+        <v>63897</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04667851007483194</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03509052254210202</v>
+        <v>0.03537352570213478</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06173091574224369</v>
+        <v>0.06145020934611155</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>79</v>
@@ -6926,19 +6926,19 @@
         <v>80990</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>64512</v>
+        <v>63240</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>99628</v>
+        <v>99609</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04103631466730459</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03268715562506956</v>
+        <v>0.03204267995877408</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05047957349421311</v>
+        <v>0.05046995536162302</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>330751</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>302419</v>
+        <v>299089</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>360970</v>
+        <v>359894</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3541970109727009</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3238568913640395</v>
+        <v>0.3202901656320437</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3865577549209598</v>
+        <v>0.3854055152655463</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>419</v>
@@ -6976,19 +6976,19 @@
         <v>453978</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>419812</v>
+        <v>420680</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>486267</v>
+        <v>486498</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.436591599387194</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4037342239875517</v>
+        <v>0.4045683962589501</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4676443084419517</v>
+        <v>0.4678663246627824</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>750</v>
@@ -6997,19 +6997,19 @@
         <v>784729</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>743143</v>
+        <v>738672</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>832661</v>
+        <v>827221</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3976073252021675</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3765363579081715</v>
+        <v>0.3742713762414451</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4218937321080055</v>
+        <v>0.4191370032029738</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>464666</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>434706</v>
+        <v>434102</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>491938</v>
+        <v>496327</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4976047675441391</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4655207944163632</v>
+        <v>0.4648745646498412</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5268105509854</v>
+        <v>0.5315106330796908</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>381</v>
@@ -7047,19 +7047,19 @@
         <v>418509</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>387376</v>
+        <v>386813</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>451541</v>
+        <v>452999</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4024813965827559</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3725407776324</v>
+        <v>0.3719991496780107</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4342475191516977</v>
+        <v>0.4356499355100362</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>841</v>
@@ -7068,19 +7068,19 @@
         <v>883175</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>836907</v>
+        <v>841353</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>927431</v>
+        <v>929078</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4474881821777946</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4240451573052336</v>
+        <v>0.4262976002261255</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4699115376221413</v>
+        <v>0.4707460635219176</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>96270</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>77419</v>
+        <v>78279</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>115461</v>
+        <v>114989</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1030938378939609</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08290720326906634</v>
+        <v>0.08382793463280404</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1236455828022299</v>
+        <v>0.1231402218100821</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>98</v>
@@ -7118,19 +7118,19 @@
         <v>106426</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>87066</v>
+        <v>86759</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>127272</v>
+        <v>127660</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1023498013016786</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08373172917403796</v>
+        <v>0.08343666745091108</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1223981667844258</v>
+        <v>0.1227707324743271</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>193</v>
@@ -7139,19 +7139,19 @@
         <v>202695</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>175827</v>
+        <v>177871</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>230822</v>
+        <v>233593</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1027018356655292</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08908840001980449</v>
+        <v>0.09012380211250616</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1169529707368772</v>
+        <v>0.1183572671172515</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>21392</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13286</v>
+        <v>14316</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>32498</v>
+        <v>32392</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006334257698558472</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003934107799195028</v>
+        <v>0.004239167829679036</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.009622823948540315</v>
+        <v>0.009591302660390624</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>38</v>
@@ -7264,19 +7264,19 @@
         <v>41554</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>29867</v>
+        <v>30233</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>57451</v>
+        <v>56687</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0117559733442244</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00844953547708713</v>
+        <v>0.008553109539440031</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01625343314540906</v>
+        <v>0.01603707002577574</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>59</v>
@@ -7285,19 +7285,19 @@
         <v>62946</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>47453</v>
+        <v>47669</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>79495</v>
+        <v>81147</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009106906606844505</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006865395372653432</v>
+        <v>0.006896648696288974</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01150122510867374</v>
+        <v>0.01174011080415914</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>100326</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>81097</v>
+        <v>80484</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>123529</v>
+        <v>122441</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02970709881635113</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0240131832707347</v>
+        <v>0.02383156427145735</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03657744937260387</v>
+        <v>0.03625542248493949</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>138</v>
@@ -7335,19 +7335,19 @@
         <v>147949</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>124880</v>
+        <v>124635</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>175019</v>
+        <v>173888</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04185577613926333</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03532943063874033</v>
+        <v>0.03526023214952152</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04951401389461873</v>
+        <v>0.04919419695078719</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>232</v>
@@ -7356,19 +7356,19 @@
         <v>248275</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>219633</v>
+        <v>216737</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>282887</v>
+        <v>280876</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03591989548771815</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03177606648150222</v>
+        <v>0.03135704036564819</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04092749711030215</v>
+        <v>0.04063645771772135</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>1161215</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1109626</v>
+        <v>1105220</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1220352</v>
+        <v>1213248</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3438415277822058</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3285656020384582</v>
+        <v>0.3272611466996084</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.361352182361744</v>
+        <v>0.3592487227422838</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1323</v>
@@ -7406,19 +7406,19 @@
         <v>1409845</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1351643</v>
+        <v>1344389</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1470362</v>
+        <v>1467516</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3988550518036523</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3823894521578072</v>
+        <v>0.3803371465797915</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4159757540765412</v>
+        <v>0.4151705986205795</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2434</v>
@@ -7427,19 +7427,19 @@
         <v>2571060</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2493975</v>
+        <v>2491033</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2652714</v>
+        <v>2654343</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3719752768180787</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3608228375068017</v>
+        <v>0.3603971099402375</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3837888021276543</v>
+        <v>0.3840244134061627</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>1601587</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1542247</v>
+        <v>1545671</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1658950</v>
+        <v>1658611</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4742379678829145</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4566670109993096</v>
+        <v>0.4576809241503059</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4912234242475397</v>
+        <v>0.4911228993521639</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1357</v>
@@ -7477,19 +7477,19 @@
         <v>1436840</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1375781</v>
+        <v>1373292</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1492963</v>
+        <v>1498267</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4064920252099782</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3892180131356412</v>
+        <v>0.3885138955681892</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4223697203066282</v>
+        <v>0.4238702281073594</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2880</v>
@@ -7498,19 +7498,19 @@
         <v>3038427</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2953907</v>
+        <v>2944230</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3131490</v>
+        <v>3118306</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4395928986338329</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4273647824206672</v>
+        <v>0.4259646257747768</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.453057116189999</v>
+        <v>0.4511495721258596</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>492660</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>454611</v>
+        <v>452588</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>537933</v>
+        <v>534063</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1458791478199702</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1346125434838034</v>
+        <v>0.1340136538305673</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1592846946528239</v>
+        <v>0.1581388091574563</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>472</v>
@@ -7548,19 +7548,19 @@
         <v>498542</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>453567</v>
+        <v>457643</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>540468</v>
+        <v>543517</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1410411735028818</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1283172085754507</v>
+        <v>0.1294702910654719</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1529022845328318</v>
+        <v>0.1537649038633394</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>938</v>
@@ -7569,19 +7569,19 @@
         <v>991203</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>931668</v>
+        <v>935219</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1050107</v>
+        <v>1051153</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1434050224535257</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1347916647189899</v>
+        <v>0.1353053694527462</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1519271753499585</v>
+        <v>0.1520784755876526</v>
       </c>
     </row>
     <row r="33">
